--- a/pred_ohlcv/54_21/2019-11-20 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-521113.7435000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-521113.7435000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-491066.5883000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1056533.8334</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1056482.4512</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1102780.1251</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1599951.2622</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1328283.957595516</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1409987.516995515</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1409987.516995515</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1328079.646295515</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1328038.646295515</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1455275.654395515</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1455204.947895515</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1442090.947895515</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1586720.813195515</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1835188.612495515</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1678276.074895515</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1676558.013895515</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1676558.013895515</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1724876.563895515</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1722803.414295515</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1546344.521595515</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1449772.736695515</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1479634.377595515</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1500178.304595515</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1987628.243595515</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1983954.143895515</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2080150.984795515</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2160150.984795515</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2437261.407295515</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2437219.407295515</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2437219.407295515</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2443634.743095515</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2443634.743095515</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2443534.743095515</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2443534.743095515</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2322332.002453712</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2319921.462153712</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2319921.462153712</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2385275.444653712</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2385234.444653712</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2408420.789653712</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2408420.789653712</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2622233.868953712</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2622233.868953712</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2672821.089753712</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2876206.870453712</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2866206.870453712</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2861799.841553712</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2940523.731753712</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2959395.304253711</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4919888.162853711</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6377039.038453711</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6065848.949953711</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6404626.23045371</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-6359568.32485371</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6010194.67475371</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-6078091.52155371</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-6263487.350353709</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-6271759.062753709</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-6214278.914153709</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-6214152.950853709</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-6337796.983553709</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-6044774.73945371</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-6021860.959453709</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6101091.481553709</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-6104432.543353709</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-6104559.28445371</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-6082926.84075371</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-6084926.84075371</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-6199218.39115371</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-5956682.39115371</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-6012430.05645371</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-5998548.650153711</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-5997902.650153711</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-6004900.243853711</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-6004900.243853711</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6015270.416453711</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-6042532.10685371</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-5920299.10085371</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-5909677.551253711</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-5820455.200953711</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-6639918.62825371</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5783806.942853711</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-8899644.972953711</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-5413721.262069096</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4355649.008369096</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FNB ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1331200.721595515</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1385011.824595515</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1530498.543895515</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1548536.397995515</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1548495.397995515</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1550131.321495516</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2274687.628253712</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2273200.423753712</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2300552.545253712</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2310993.528953712</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2381255.113953712</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2381213.113953712</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2955508.191653712</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2552825.744753712</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2418655.527453712</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2625752.107953712</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2598319.748953712</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2622275.268953712</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2658266.871153712</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4919888.162853711</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6132006.315553712</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6282746.405653711</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6281862.295653711</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6286007.481753711</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6285964.74665371</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6274934.466453711</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-6484298.937753711</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6348402.203253711</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-6376913.697153711</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6021715.526153711</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6021672.526153711</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6254296.059553711</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6406704.62235371</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6404626.23045371</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-5991314.58325371</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6010194.67475371</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-6078091.52155371</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-6199569.932153709</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-6263487.350353709</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-6260487.350353709</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-6271759.062753709</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-6173442.407553709</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-6061539.461153709</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-6209790.914153709</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-6214195.075953709</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-6214152.950853709</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6218923.935353709</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-6218881.935353709</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-6364892.550553709</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-6337796.983553709</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-5999441.29035371</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-6044774.73945371</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5934222.859653709</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-6021860.959453709</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-6021333.959453709</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-6101091.481553709</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6039382.746953709</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6111526.242853709</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-5935519.151453709</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6104336.87605371</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6015270.416453711</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6041843.253053711</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-6042532.10685371</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-5920299.10085371</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5915254.551253711</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-5909677.551253711</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-5820455.200953711</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-5809401.200953711</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-6684342.62825371</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-6639918.62825371</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5783806.942853711</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-6938970.347669096</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-5413721.262069096</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4355649.008369096</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
